--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573439</v>
+        <v>111573403</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11768,26 +11768,39 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -11795,10 +11808,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>492215.3225248906</v>
+        <v>491981.2275731571</v>
       </c>
       <c r="R75" t="n">
-        <v>7015165.030750753</v>
+        <v>7015311.94031445</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -11841,11 +11854,6 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -11994,10 +12002,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573403</v>
+        <v>111573439</v>
       </c>
       <c r="B77" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12010,39 +12018,26 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -12050,10 +12045,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>491981.2275731571</v>
+        <v>492215.3225248906</v>
       </c>
       <c r="R77" t="n">
-        <v>7015311.94031445</v>
+        <v>7015165.030750753</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -12096,6 +12091,11 @@
       <c r="AB77" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573403</v>
+        <v>111573805</v>
       </c>
       <c r="B75" t="n">
-        <v>96346</v>
+        <v>78612</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11764,43 +11764,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>620</v>
+        <v>6464</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -11808,10 +11795,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>491981.2275731571</v>
+        <v>492215.3225248906</v>
       </c>
       <c r="R75" t="n">
-        <v>7015311.94031445</v>
+        <v>7015165.030750753</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -11854,6 +11841,11 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -11881,10 +11873,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111573805</v>
+        <v>111573403</v>
       </c>
       <c r="B76" t="n">
-        <v>78612</v>
+        <v>96346</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -11893,30 +11885,43 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6464</v>
+        <v>620</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -11924,10 +11929,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>492215.3225248906</v>
+        <v>491981.2275731571</v>
       </c>
       <c r="R76" t="n">
-        <v>7015165.030750753</v>
+        <v>7015311.94031445</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -11970,11 +11975,6 @@
       <c r="AB76" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD76" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573805</v>
+        <v>111573439</v>
       </c>
       <c r="B75" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11764,25 +11764,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>På sälg med lunglav.</t>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573439</v>
+        <v>111573805</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12014,25 +12014,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Även på en gran i närheten.</t>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573439</v>
+        <v>111573805</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11764,25 +11764,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Även på en gran i närheten.</t>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573805</v>
+        <v>111573439</v>
       </c>
       <c r="B77" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12014,25 +12014,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På sälg med lunglav.</t>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573805</v>
+        <v>111573439</v>
       </c>
       <c r="B75" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11764,25 +11764,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>På sälg med lunglav.</t>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -11873,10 +11873,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111573403</v>
+        <v>111573395</v>
       </c>
       <c r="B76" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -11885,40 +11885,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -12002,10 +11994,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573439</v>
+        <v>111573403</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12018,26 +12010,39 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -12045,10 +12050,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>492215.3225248906</v>
+        <v>491981.2275731571</v>
       </c>
       <c r="R77" t="n">
-        <v>7015165.030750753</v>
+        <v>7015311.94031445</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -12091,11 +12096,6 @@
       <c r="AB77" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -12123,10 +12123,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111573395</v>
+        <v>111573805</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -12135,35 +12135,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -12171,10 +12166,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>491981.2275731571</v>
+        <v>492215.3225248906</v>
       </c>
       <c r="R78" t="n">
-        <v>7015311.94031445</v>
+        <v>7015165.030750753</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -12217,6 +12212,11 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11752,10 +11752,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111573439</v>
+        <v>111573403</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11768,26 +11768,39 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -11795,10 +11808,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>492215.3225248906</v>
+        <v>491981.2275731571</v>
       </c>
       <c r="R75" t="n">
-        <v>7015165.030750753</v>
+        <v>7015311.94031445</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -11841,11 +11854,6 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -11873,10 +11881,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111573395</v>
+        <v>111573439</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -11885,35 +11893,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -11921,10 +11924,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>491981.2275731571</v>
+        <v>492215.3225248906</v>
       </c>
       <c r="R76" t="n">
-        <v>7015311.94031445</v>
+        <v>7015165.030750753</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -11967,6 +11970,11 @@
       <c r="AB76" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -11994,10 +12002,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573403</v>
+        <v>111573805</v>
       </c>
       <c r="B77" t="n">
-        <v>96346</v>
+        <v>78612</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12006,43 +12014,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>620</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -12050,10 +12045,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>491981.2275731571</v>
+        <v>492215.3225248906</v>
       </c>
       <c r="R77" t="n">
-        <v>7015311.94031445</v>
+        <v>7015165.030750753</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -12096,6 +12091,11 @@
       <c r="AB77" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -12123,10 +12123,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111573805</v>
+        <v>111573395</v>
       </c>
       <c r="B78" t="n">
-        <v>78612</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -12135,30 +12135,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -12166,10 +12171,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>492215.3225248906</v>
+        <v>491981.2275731571</v>
       </c>
       <c r="R78" t="n">
-        <v>7015165.030750753</v>
+        <v>7015311.94031445</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -12212,11 +12217,6 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 2979-2023.xlsx
+++ b/artfynd/A 2979-2023.xlsx
@@ -11881,10 +11881,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111573439</v>
+        <v>111573805</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -11893,25 +11893,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Även på en gran i närheten.</t>
+          <t>På sälg med lunglav.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111573805</v>
+        <v>111573439</v>
       </c>
       <c r="B77" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -12014,25 +12014,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>På sälg med lunglav.</t>
+          <t>Även på en gran i närheten.</t>
         </is>
       </c>
       <c r="AD77" t="b">
